--- a/src/test/resource/TestCases.xlsx
+++ b/src/test/resource/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\91 assignements\petstore-api-tests\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA32E6-8874-418A-862A-9EAF6B78EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9D354-AFB5-49F9-93BA-F3BD5471D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -247,6 +247,87 @@
   </si>
   <si>
     <t>Place an order for the created pet</t>
+  </si>
+  <si>
+    <t>TC_11_PlaceOrderWithInvalidPetId</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>Place an order with invalid petId.</t>
+  </si>
+  <si>
+    <t>/store/order</t>
+  </si>
+  <si>
+    <t>Fetch order by valid ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /store/order/3001</t>
+  </si>
+  <si>
+    <t>Fetch order with invalid ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /store/order/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetch order with non-existent ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /store/order/9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>Edge Case</t>
+  </si>
+  <si>
+    <t>Delete the created pet.</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/pet/2001</t>
+  </si>
+  <si>
+    <t>Delete already deleted pet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete the created order.</t>
+  </si>
+  <si>
+    <t>/store/order/3001</t>
+  </si>
+  <si>
+    <t>Delete the created order.</t>
+  </si>
+  <si>
+    <t>Fetch order with non-existent ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete the created user</t>
+  </si>
+  <si>
+    <t>/user/testuser01</t>
+  </si>
+  <si>
+    <t>Delete user with invalid username (empty string)</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete already deleted user.</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -305,13 +386,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1061,6 +1145,212 @@
       </c>
       <c r="H12" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resource/TestCases.xlsx
+++ b/src/test/resource/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\91 assignements\petstore-api-tests\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9D354-AFB5-49F9-93BA-F3BD5471D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70880EC3-CA7F-441F-8525-6FBEC0F6A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>Description</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Delete already deleted user.</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -826,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>54</v>
